--- a/Output/QC.xlsx
+++ b/Output/QC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
   <si>
     <t>File Name</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Instrument S/N</t>
+  </si>
+  <si>
+    <t>Cal DueDate</t>
   </si>
   <si>
     <t>Old Efficiency</t>
@@ -305,6 +308,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -334,8 +340,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,13 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,1099 +659,1300 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>0.79</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44183</v>
       </c>
       <c r="E2">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0.79</v>
+      <c r="D3" s="1">
+        <v>44183</v>
       </c>
       <c r="E3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0.6899999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44183</v>
       </c>
       <c r="E4">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0.9</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44056</v>
       </c>
       <c r="E5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43726</v>
+      </c>
+      <c r="E6">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>0.75</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44058</v>
       </c>
       <c r="E7">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44122</v>
       </c>
       <c r="E8">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44000</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>0.5600000000000001</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44055</v>
       </c>
       <c r="E10">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44086</v>
+      </c>
+      <c r="E11">
         <v>0.8100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44122</v>
       </c>
       <c r="E12">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44122</v>
       </c>
       <c r="E13">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14">
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44183</v>
+      </c>
+      <c r="E14">
         <v>0.3375</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15">
-        <v>0.74</v>
+        <v>31</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44247</v>
       </c>
       <c r="E15">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>0.74</v>
+      <c r="D16" s="1">
+        <v>44247</v>
       </c>
       <c r="E16">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
-        <v>0.74</v>
+        <v>34</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44334</v>
       </c>
       <c r="E17">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44219</v>
+      </c>
+      <c r="E18">
+        <v>0.53</v>
+      </c>
+      <c r="F18">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>0.53</v>
-      </c>
-      <c r="E18">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44219</v>
       </c>
       <c r="E19">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44219</v>
       </c>
       <c r="E20">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44219</v>
       </c>
       <c r="E21">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44219</v>
       </c>
       <c r="E22">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44219</v>
       </c>
       <c r="E23">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44219</v>
       </c>
       <c r="E24">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44219</v>
       </c>
       <c r="E25">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44219</v>
       </c>
       <c r="E26">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44219</v>
       </c>
       <c r="E27">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44219</v>
       </c>
       <c r="E28">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>0.53</v>
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44219</v>
       </c>
       <c r="E29">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44183</v>
       </c>
       <c r="E30">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31">
-        <v>0.8</v>
+      <c r="D31" s="1">
+        <v>44183</v>
       </c>
       <c r="E31">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32">
-        <v>0.67</v>
+        <v>53</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44167</v>
       </c>
       <c r="E32">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33">
-        <v>0.88</v>
+        <v>55</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44167</v>
       </c>
       <c r="E33">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44183</v>
       </c>
       <c r="E34">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44183</v>
+      </c>
+      <c r="E35">
         <v>0.3375</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44183</v>
       </c>
       <c r="E36">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0.67</v>
+        <v>53</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44167</v>
       </c>
       <c r="E37">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38">
-        <v>0.88</v>
+        <v>55</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44167</v>
       </c>
       <c r="E38">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44183</v>
       </c>
       <c r="E39">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44183</v>
       </c>
       <c r="E40">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44183</v>
       </c>
       <c r="E41">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42">
-        <v>0.88</v>
+        <v>55</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44167</v>
       </c>
       <c r="E42">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43">
-        <v>0.51</v>
+        <v>66</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44183</v>
       </c>
       <c r="E43">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44183</v>
+      </c>
+      <c r="E44">
+        <v>0.3375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44183</v>
+      </c>
+      <c r="E45">
+        <v>0.3375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" t="s">
         <v>66</v>
       </c>
-      <c r="C44" t="s">
-        <v>28</v>
-      </c>
-      <c r="D44">
-        <v>0.3375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45">
-        <v>0.3375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46">
-        <v>0.51</v>
+      <c r="D46" s="1">
+        <v>44183</v>
       </c>
       <c r="E46">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44183</v>
       </c>
       <c r="E47">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48">
-        <v>0.6899999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44183</v>
       </c>
       <c r="E48">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49">
-        <v>0.8</v>
+        <v>73</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44153</v>
       </c>
       <c r="E49">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
         <v>73</v>
       </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50">
-        <v>0.8</v>
+      <c r="D50" s="1">
+        <v>44153</v>
       </c>
       <c r="E50">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51">
-        <v>0.51</v>
+        <v>66</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44183</v>
       </c>
       <c r="E51">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52">
-        <v>0.51</v>
+        <v>66</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44183</v>
       </c>
       <c r="E52">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>52</v>
-      </c>
-      <c r="D53">
-        <v>0.67</v>
+        <v>53</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44167</v>
       </c>
       <c r="E53">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54">
-        <v>0.67</v>
+        <v>53</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44167</v>
       </c>
       <c r="E54">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
-      </c>
-      <c r="D55">
-        <v>0.88</v>
+        <v>55</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44167</v>
       </c>
       <c r="E55">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56">
-        <v>0.6899999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44183</v>
       </c>
       <c r="E56">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D57">
+        <v>29</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44183</v>
+      </c>
+      <c r="E57">
         <v>0.3375</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58">
-        <v>0.62</v>
+        <v>83</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44087</v>
       </c>
       <c r="E58">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59">
-        <v>0.8</v>
+        <v>50</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44183</v>
       </c>
       <c r="E59">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D60">
-        <v>0.5</v>
+        <v>21</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44000</v>
       </c>
       <c r="E60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
-      </c>
-      <c r="D61">
-        <v>0.88</v>
+        <v>55</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44167</v>
       </c>
       <c r="E61">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D62">
-        <v>0.62</v>
+        <v>83</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44087</v>
       </c>
       <c r="E62">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>88</v>
-      </c>
-      <c r="D63">
-        <v>0.77</v>
+        <v>89</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44183</v>
       </c>
       <c r="E63">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64">
-        <v>0.62</v>
+        <v>83</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44266</v>
       </c>
       <c r="E64">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65">
-        <v>0.8</v>
+        <v>73</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44153</v>
       </c>
       <c r="E65">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66">
-        <v>0.62</v>
+        <v>83</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44266</v>
       </c>
       <c r="E66">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67">
+        <v>95</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44264</v>
+      </c>
+      <c r="E67">
         <v>0.74</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>0.74</v>
       </c>
     </row>

--- a/Output/QC.xlsx
+++ b/Output/QC.xlsx
@@ -34,7 +34,7 @@
     <t>New Efficiency</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 011020-950.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 011020-950.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Survey Sheet (2)"&gt;</t>
@@ -46,7 +46,7 @@
     <t>&lt;Worksheet "2360-190602"&gt;</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 012320-1045.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 012320-1045.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Scan and Data"&gt;</t>
@@ -55,49 +55,49 @@
     <t>268475/PR289416</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 081919-196.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 081919-196.xlsx</t>
   </si>
   <si>
     <t>170550/PR312880</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 082019-198.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 102819-524.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 082019-198.xlsx</t>
+  </si>
+  <si>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 102819-524.xlsx</t>
   </si>
   <si>
     <t>227413/PR295918</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 103019-545.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 103019-545.xlsx</t>
   </si>
   <si>
     <t>170573/PR295917</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110119-562.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110119-562.xlsx</t>
   </si>
   <si>
     <t>234860/PR289402</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110819-620.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110819-620.xlsx</t>
   </si>
   <si>
     <t>227431/PR289429</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110919-635.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110919-635.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "2360-190602 "&gt;</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110919-636.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-012020-1020.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110919-636.xlsx</t>
+  </si>
+  <si>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-012020-1020.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Survey"&gt;</t>
@@ -106,7 +106,7 @@
     <t>251035/PR293951</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-061620-1794.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-061620-1794.xlsx</t>
   </si>
   <si>
     <t>227404/PR389087</t>
@@ -115,13 +115,13 @@
     <t>&lt;Worksheet "Scan and Data (2)"&gt;</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-070920-1966.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-070920-1966.xlsx</t>
   </si>
   <si>
     <t>268409/PR295781</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-071020-1968.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-071020-1968.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Sub-Basement"&gt;</t>
@@ -160,7 +160,7 @@
     <t>&lt;Worksheet "9th Floor"&gt;</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-FSS-010820-001 - Rev 4.xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-FSS-010820-001 - Rev 4.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "FSS-001"&gt;</t>
@@ -286,7 +286,7 @@
     <t>227401/PR312929</t>
   </si>
   <si>
-    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-FSS-052820-006 (HRT 11-13).xlsx</t>
+    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-FSS-052820-006 (HRT 11-13).xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Systematic SDS"&gt;</t>

--- a/Output/QC.xlsx
+++ b/Output/QC.xlsx
@@ -34,7 +34,7 @@
     <t>New Efficiency</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 011020-950.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 011020-950.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Survey Sheet (2)"&gt;</t>
@@ -46,7 +46,7 @@
     <t>&lt;Worksheet "2360-190602"&gt;</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 012320-1045.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 012320-1045.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Scan and Data"&gt;</t>
@@ -55,49 +55,49 @@
     <t>268475/PR289416</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 081919-196.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 081919-196.xlsx</t>
   </si>
   <si>
     <t>170550/PR312880</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 082019-198.xlsx</t>
-  </si>
-  <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 102819-524.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 082019-198.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 102819-524.xlsx</t>
   </si>
   <si>
     <t>227413/PR295918</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 103019-545.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 103019-545.xlsx</t>
   </si>
   <si>
     <t>170573/PR295917</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110119-562.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110119-562.xlsx</t>
   </si>
   <si>
     <t>234860/PR289402</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110819-620.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110819-620.xlsx</t>
   </si>
   <si>
     <t>227431/PR289429</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110919-635.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110919-635.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "2360-190602 "&gt;</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\Characterization 110919-636.xlsx</t>
-  </si>
-  <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-012020-1020.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\Characterization 110919-636.xlsx</t>
+  </si>
+  <si>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-012020-1020.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Survey"&gt;</t>
@@ -106,7 +106,7 @@
     <t>251035/PR293951</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-061620-1794.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-061620-1794.xlsx</t>
   </si>
   <si>
     <t>227404/PR389087</t>
@@ -115,13 +115,13 @@
     <t>&lt;Worksheet "Scan and Data (2)"&gt;</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-070920-1966.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-070920-1966.xlsx</t>
   </si>
   <si>
     <t>268409/PR295781</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-071020-1968.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-071020-1968.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Sub-Basement"&gt;</t>
@@ -160,7 +160,7 @@
     <t>&lt;Worksheet "9th Floor"&gt;</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-FSS-010820-001 - Rev 4.xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-FSS-010820-001 - Rev 4.xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "FSS-001"&gt;</t>
@@ -286,7 +286,7 @@
     <t>227401/PR312929</t>
   </si>
   <si>
-    <t>C:/Users/paul.jones/Documents/GitHub/ModiffyEfficiency/ModiffyEfficiency/surveys\INIS-FSS-052820-006 (HRT 11-13).xlsx</t>
+    <t>C:\Users\paul.jones\Documents\GitHub\ModiffyEfficiency\ModiffyEfficiency\Output\Output Files\INIS-FSS-052820-006 (HRT 11-13).xlsx</t>
   </si>
   <si>
     <t>&lt;Worksheet "Systematic SDS"&gt;</t>
@@ -905,7 +905,7 @@
         <v>44183</v>
       </c>
       <c r="E14">
-        <v>0.3375</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -982,7 +982,7 @@
         <v>44219</v>
       </c>
       <c r="E18">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="F18">
         <v>0.53</v>
@@ -1002,7 +1002,7 @@
         <v>44219</v>
       </c>
       <c r="E19">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="F19">
         <v>0.53</v>
@@ -1022,7 +1022,7 @@
         <v>44219</v>
       </c>
       <c r="E20">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="F20">
         <v>0.53</v>
@@ -1042,7 +1042,7 @@
         <v>44219</v>
       </c>
       <c r="E21">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="F21">
         <v>0.53</v>
@@ -1062,7 +1062,7 @@
         <v>44219</v>
       </c>
       <c r="E22">
-        <v>0.53</v>
+        <v>0.13</v>
       </c>
       <c r="F22">
         <v>0.53</v>
@@ -1593,10 +1593,10 @@
         <v>44153</v>
       </c>
       <c r="E49">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="F49">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1613,10 +1613,10 @@
         <v>44153</v>
       </c>
       <c r="E50">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="F50">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1910,10 +1910,10 @@
         <v>44153</v>
       </c>
       <c r="E65">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
       <c r="F65">
-        <v>0.8</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="66" spans="1:6">
